--- a/W40K-HOI4 Converter.xlsx
+++ b/W40K-HOI4 Converter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/429d0bbe9bd122b3/Logiciels et Jeux/Heart of Iron IV/HOI4_Calculator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30E7DDE0-7559-F044-BCCF-868894B9CFCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30E7DDE0-7559-F044-BCCF-868894B9CFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16620" xr2:uid="{D4C3DD04-2F54-554F-9DFA-AF0108F6C81D}"/>
+    <workbookView minimized="1" xWindow="29970" yWindow="1170" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{D4C3DD04-2F54-554F-9DFA-AF0108F6C81D}"/>
   </bookViews>
   <sheets>
     <sheet name="SA et HA" sheetId="1" r:id="rId1"/>
@@ -1601,7 +1601,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1635,7 +1634,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1669,7 +1667,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1703,7 +1700,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1737,7 +1733,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1771,7 +1766,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1805,7 +1799,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1839,7 +1832,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1873,7 +1865,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1907,7 +1898,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4567,16 +4557,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1819F195-3303-F741-9220-23F8E2E46EE2}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
@@ -4596,7 +4586,7 @@
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4646,7 +4636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4708,7 +4698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4772,7 +4762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4836,7 +4826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4900,7 +4890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4963,7 +4953,7 @@
         <v>3.8201625000000012</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5027,7 +5017,7 @@
         <v>5.0808161250000001</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -5091,7 +5081,7 @@
         <v>6.7574854462500031</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5155,7 +5145,7 @@
         <v>8.9874556435125008</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -5219,7 +5209,7 @@
         <v>11.953316005871628</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -5361,16 +5351,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F97B4F1-F554-1842-9830-8AFE983B6720}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -5387,7 +5377,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -5398,7 +5388,7 @@
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -5409,12 +5399,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -5425,7 +5415,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -5436,7 +5426,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -5447,7 +5437,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -5462,7 +5452,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -5473,7 +5463,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -5481,7 +5471,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -5489,7 +5479,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -5537,12 +5527,12 @@
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
@@ -5560,7 +5550,7 @@
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -5587,7 +5577,7 @@
       </c>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5609,7 +5599,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5631,7 +5621,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5652,12 +5642,12 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <f t="shared" ref="B5:B12" si="0">B5*1.5</f>
+        <f t="shared" ref="B6:B12" si="0">B5*1.5</f>
         <v>1.5</v>
       </c>
       <c r="C6" s="1"/>
@@ -5674,7 +5664,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5696,7 +5686,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5718,7 +5708,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -5740,7 +5730,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5762,7 +5752,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -5784,7 +5774,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>

--- a/W40K-HOI4 Converter.xlsx
+++ b/W40K-HOI4 Converter.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/429d0bbe9bd122b3/Logiciels et Jeux/Heart of Iron IV/HOI4_Calculator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/floriandelrieu/OneDrive/Logiciels et Jeux/Heart of Iron IV/HOI4_Calculator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30E7DDE0-7559-F044-BCCF-868894B9CFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6703FF-4827-4944-AAB6-539C534380A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="29970" yWindow="1170" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{D4C3DD04-2F54-554F-9DFA-AF0108F6C81D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16620" activeTab="3" xr2:uid="{D4C3DD04-2F54-554F-9DFA-AF0108F6C81D}"/>
   </bookViews>
   <sheets>
     <sheet name="SA et HA" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="E and HP" sheetId="3" r:id="rId3"/>
+    <sheet name="Function Helper" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
   <si>
     <t>F / PA</t>
   </si>
@@ -180,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -191,11 +192,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="28">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
@@ -1582,7 +1643,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AC16A1AC-14A9-A741-BF9F-860BF516F5B2}" type="CELLRANGE">
+                    <a:fld id="{5DB76476-29F2-1149-8301-26279E23A265}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1615,8 +1676,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A6770A42-54CE-CD4F-B8F2-21D502DC4888}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{47CF14FE-D0D5-9145-941C-BA0A94564596}" type="CELLRANGE">
+                      <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -1634,6 +1695,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1648,8 +1710,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{29F85460-5841-BC4D-8167-3C7BA909233E}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{BDBF54FE-9BD2-A144-80E0-9CFC8B2E8359}" type="CELLRANGE">
+                      <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -1667,6 +1729,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1681,8 +1744,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0DC62D4A-C6D5-A646-85A9-A4DC5F88C2C1}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{D4739CEE-3FB7-AA4C-BEEE-090B6FD8D262}" type="CELLRANGE">
+                      <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -1700,6 +1763,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1714,8 +1778,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6C410983-46FC-4342-B620-500A3C7B5A58}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{576C812B-2E57-A646-9801-EC2722D29C20}" type="CELLRANGE">
+                      <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -1733,6 +1797,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1747,8 +1812,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{138B53B6-EDA3-5241-812D-6B3A044E40DF}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{3645FCE4-98C7-8C45-8BE6-F023E5E61058}" type="CELLRANGE">
+                      <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -1766,6 +1831,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1780,8 +1846,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{00756374-ECAD-194D-A2C0-96658856E94C}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{2EB85615-DF55-C041-8683-15446D4D334F}" type="CELLRANGE">
+                      <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -1799,6 +1865,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1813,8 +1880,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{99F9CD0B-EA10-B448-9AA2-77814908DF7D}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{787F992B-E814-B440-A714-AF4084CF7339}" type="CELLRANGE">
+                      <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -1832,6 +1899,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1846,8 +1914,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8EAA7AAA-7468-C842-9172-7704169D8F4F}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{0B5DA7C1-FAB4-DF49-904A-C05B3415FF5D}" type="CELLRANGE">
+                      <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -1865,6 +1933,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1879,8 +1948,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E41EC8FE-A3C1-3A49-B246-4C89640B9F87}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{B7AEA0EC-13EF-D840-AD2A-5E855D62005B}" type="CELLRANGE">
+                      <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -1898,6 +1967,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2243,6 +2313,944 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Bonus HP en Fonction</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> de E</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Function</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{ECAF482D-B9C6-FA4E-8AE8-420968B19194}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[PLAGECELL]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="fr-FR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-C471-464A-B23F-CE68BB85D4CF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1254EA62-DB49-BC4C-AFAE-A34EEC26862C}" type="CELLRANGE">
+                      <a:rPr lang="fr-FR"/>
+                      <a:pPr/>
+                      <a:t>[PLAGECELL]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="fr-FR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-C471-464A-B23F-CE68BB85D4CF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5569A8FA-3E3C-E447-882D-7C15CC5C3A0D}" type="CELLRANGE">
+                      <a:rPr lang="fr-FR"/>
+                      <a:pPr/>
+                      <a:t>[PLAGECELL]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="fr-FR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-C471-464A-B23F-CE68BB85D4CF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E32A147B-F8A0-7A40-9923-EDF3FB1A89CC}" type="CELLRANGE">
+                      <a:rPr lang="fr-FR"/>
+                      <a:pPr/>
+                      <a:t>[PLAGECELL]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="fr-FR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-C471-464A-B23F-CE68BB85D4CF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A4151664-F369-0248-8845-74D76C17C96C}" type="CELLRANGE">
+                      <a:rPr lang="fr-FR"/>
+                      <a:pPr/>
+                      <a:t>[PLAGECELL]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="fr-FR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-C471-464A-B23F-CE68BB85D4CF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B1F42525-F898-9E4B-9660-D95478072FBB}" type="CELLRANGE">
+                      <a:rPr lang="fr-FR"/>
+                      <a:pPr/>
+                      <a:t>[PLAGECELL]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="fr-FR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-C471-464A-B23F-CE68BB85D4CF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{CC4D5B66-BB3C-2B4B-A9B5-10F15107775B}" type="CELLRANGE">
+                      <a:rPr lang="fr-FR"/>
+                      <a:pPr/>
+                      <a:t>[PLAGECELL]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="fr-FR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-C471-464A-B23F-CE68BB85D4CF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C255B050-39C2-E942-B24F-260346A436C4}" type="CELLRANGE">
+                      <a:rPr lang="fr-FR"/>
+                      <a:pPr/>
+                      <a:t>[PLAGECELL]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="fr-FR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-C471-464A-B23F-CE68BB85D4CF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{CEACCC49-9985-704F-87D4-D1BA341994F6}" type="CELLRANGE">
+                      <a:rPr lang="fr-FR"/>
+                      <a:pPr/>
+                      <a:t>[PLAGECELL]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="fr-FR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-C471-464A-B23F-CE68BB85D4CF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4DAF43F6-3742-BC4C-8CA2-C353E061EB40}" type="CELLRANGE">
+                      <a:rPr lang="fr-FR"/>
+                      <a:pPr/>
+                      <a:t>[PLAGECELL]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="fr-FR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-C471-464A-B23F-CE68BB85D4CF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Function Helper'!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Function Helper'!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.82644628099173545</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90909090909090906</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3310000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4641000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6105100000000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7715610000000008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9487171000000012</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>'Function Helper'!$B$3:$B$12</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0,83</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0,91</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1,00</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1,10</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1,21</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1,33</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1,46</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1,61</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1,77</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1,95</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-C471-464A-B23F-CE68BB85D4CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Data</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Function Helper'!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Function Helper'!$C$3:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="1">
+                  <c:v>1.4641000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3310000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-C471-464A-B23F-CE68BB85D4CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="358786144"/>
+        <c:axId val="301958080"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="358786144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="301958080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="301958080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="358786144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2363,6 +3371,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
   <cs:axisTitle>
@@ -3500,6 +4548,574 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4187,28 +5803,71 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>518297</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>97592</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>439159</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>166167</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7646DB9B-8208-8F4D-9A8F-619A622C34A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{68B343F0-5CB8-F34A-9032-7A8BC45CC732}" name="Tableau1" displayName="Tableau1" ref="A2:H12" totalsRowShown="0">
   <autoFilter ref="A2:H12" xr:uid="{4B6B9677-3CC6-274A-B76C-365663A705CB}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{E7BD1C96-5B71-3749-9E65-84A6982275AF}" name="F / PA"/>
-    <tableColumn id="9" xr3:uid="{8196D570-E836-4971-BDEB-4E595DE28B38}" name="-" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{272187FA-DDAB-634A-A4A4-26FC522FBBA2}" name="6" dataDxfId="19">
+    <tableColumn id="9" xr3:uid="{8196D570-E836-4971-BDEB-4E595DE28B38}" name="-" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{272187FA-DDAB-634A-A4A4-26FC522FBBA2}" name="6" dataDxfId="26">
       <calculatedColumnFormula>B3*1.2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{16F8A2FD-9055-3C44-94E5-C8F03BB63328}" name="5" dataDxfId="18">
+    <tableColumn id="3" xr3:uid="{16F8A2FD-9055-3C44-94E5-C8F03BB63328}" name="5" dataDxfId="25">
       <calculatedColumnFormula>C3*1.2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E5EB09E5-EC19-3649-8190-B7F51C5EE6E3}" name="4" dataDxfId="17">
+    <tableColumn id="4" xr3:uid="{E5EB09E5-EC19-3649-8190-B7F51C5EE6E3}" name="4" dataDxfId="24">
       <calculatedColumnFormula>D3*1.2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{72F05FE3-F6A4-FC4A-A310-D4539CA525E6}" name="3" dataDxfId="16">
+    <tableColumn id="5" xr3:uid="{72F05FE3-F6A4-FC4A-A310-D4539CA525E6}" name="3" dataDxfId="23">
       <calculatedColumnFormula>E3*1.2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{43F8311A-EB18-1E4F-B94E-6D39A31DD762}" name="2" dataDxfId="15">
+    <tableColumn id="6" xr3:uid="{43F8311A-EB18-1E4F-B94E-6D39A31DD762}" name="2" dataDxfId="22">
       <calculatedColumnFormula>F3*1.2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{DA9C8D03-6FD8-3244-A90B-93A8292A878F}" name="1" dataDxfId="14">
+    <tableColumn id="7" xr3:uid="{DA9C8D03-6FD8-3244-A90B-93A8292A878F}" name="1" dataDxfId="21">
       <calculatedColumnFormula>G3*1.2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4221,19 +5880,19 @@
   <autoFilter ref="J2:Q12" xr:uid="{A7F45376-61A5-6A49-890F-C9199E2F9231}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{1CC10AD9-790B-0D40-A048-ECBC6D860E9B}" name="F / PA"/>
-    <tableColumn id="8" xr3:uid="{68458088-3306-4852-8CC1-42C71C8E6267}" name="-" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{0A4DE047-B0CB-6F47-9D1C-FA3B12824F8B}" name="6" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{30BEE5CF-F8BF-874F-8239-B8A32E0F3788}" name="5" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{33E504D1-230F-1044-8267-102893B9C83A}" name="4" dataDxfId="10">
+    <tableColumn id="8" xr3:uid="{68458088-3306-4852-8CC1-42C71C8E6267}" name="-" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{0A4DE047-B0CB-6F47-9D1C-FA3B12824F8B}" name="6" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{30BEE5CF-F8BF-874F-8239-B8A32E0F3788}" name="5" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{33E504D1-230F-1044-8267-102893B9C83A}" name="4" dataDxfId="17">
       <calculatedColumnFormula>M3*1.2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{AC66CF92-E857-3B41-BD3E-CE22BAB1B711}" name="3" dataDxfId="9">
+    <tableColumn id="5" xr3:uid="{AC66CF92-E857-3B41-BD3E-CE22BAB1B711}" name="3" dataDxfId="16">
       <calculatedColumnFormula>N3*1.1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{84221775-D881-1445-98D2-BCB2A1B20014}" name="2" dataDxfId="8">
+    <tableColumn id="6" xr3:uid="{84221775-D881-1445-98D2-BCB2A1B20014}" name="2" dataDxfId="15">
       <calculatedColumnFormula>O3*1.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C659DBB4-71C6-C845-9226-9EA8DCB74D73}" name="1" dataDxfId="7">
+    <tableColumn id="7" xr3:uid="{C659DBB4-71C6-C845-9226-9EA8DCB74D73}" name="1" dataDxfId="14">
       <calculatedColumnFormula>P3*2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4246,13 +5905,34 @@
   <autoFilter ref="A2:H12" xr:uid="{4B6B9677-3CC6-274A-B76C-365663A705CB}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{9EB72AAB-E345-6949-90B2-EF5C02C4735E}" name="E / HP"/>
-    <tableColumn id="9" xr3:uid="{77A34681-2086-A749-A721-27F7398FABEB}" name="-" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{8820C6AE-5E1E-2046-9B4B-88D33201E54E}" name="Colonne1" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{0528867D-BFAB-D841-8103-23F69C8C64F2}" name="Colonne2" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{83EF4AD6-487F-8A4F-AAF2-B0E660AE2C9C}" name="Colonne3" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{37F7CDA7-B8DA-CC49-A998-E1429D5E1F19}" name="Colonne4" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{16B04AFD-D425-7C49-8211-BA56537C0D1F}" name="Colonne5" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{F074B7DE-CDF5-8D4E-A044-1E1D25EBC904}" name="Colonne6" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{77A34681-2086-A749-A721-27F7398FABEB}" name="-" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{8820C6AE-5E1E-2046-9B4B-88D33201E54E}" name="Colonne1" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{0528867D-BFAB-D841-8103-23F69C8C64F2}" name="Colonne2" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{83EF4AD6-487F-8A4F-AAF2-B0E660AE2C9C}" name="Colonne3" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{37F7CDA7-B8DA-CC49-A998-E1429D5E1F19}" name="Colonne4" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{16B04AFD-D425-7C49-8211-BA56537C0D1F}" name="Colonne5" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{F074B7DE-CDF5-8D4E-A044-1E1D25EBC904}" name="Colonne6" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{78BE9740-1231-1F43-93B0-42906CFDCE0D}" name="Tableau145" displayName="Tableau145" ref="A2:H12" totalsRowShown="0">
+  <autoFilter ref="A2:H12" xr:uid="{4B6B9677-3CC6-274A-B76C-365663A705CB}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{B74927E1-015E-5C4D-9C2F-8A1E2FBB82C1}" name="E / HP"/>
+    <tableColumn id="9" xr3:uid="{5AFAEF64-63FF-864E-BCBC-AF17C654E15B}" name="-" dataDxfId="1">
+      <calculatedColumnFormula>1.1^(A3-3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{381C9BFC-B20C-3E49-8556-E76E8C00362C}" name="Colonne1" dataDxfId="0">
+      <calculatedColumnFormula>1.1^(5-A3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{B8B0F4E4-54A6-2A4F-8AD4-92FB90038B62}" name="Colonne2" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{DDB739EE-F463-8647-92EB-A4DE79DC7CD5}" name="Colonne3" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{5BFA6C16-B3D6-5942-B6A6-A6ED66B3CE02}" name="Colonne4" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{119CAEF6-0090-EB4D-B760-248C75207273}" name="Colonne5" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{1E3350CA-CE1F-7440-8179-67DF738DFC39}" name="Colonne6" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4558,15 +6238,15 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.875" style="2"/>
+    <col min="2" max="2" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
@@ -4586,7 +6266,7 @@
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4636,7 +6316,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4698,7 +6378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4762,7 +6442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4826,7 +6506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4890,7 +6570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4953,7 +6633,7 @@
         <v>3.8201625000000012</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5017,7 +6697,7 @@
         <v>5.0808161250000001</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -5081,7 +6761,7 @@
         <v>6.7574854462500031</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5145,7 +6825,7 @@
         <v>8.9874556435125008</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -5209,7 +6889,7 @@
         <v>11.953316005871628</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -5351,16 +7031,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F97B4F1-F554-1842-9830-8AFE983B6720}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -5377,7 +7057,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -5388,7 +7068,7 @@
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -5399,12 +7079,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -5415,7 +7095,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -5426,7 +7106,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -5437,7 +7117,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -5452,7 +7132,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -5463,7 +7143,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -5471,7 +7151,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -5479,7 +7159,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -5523,16 +7203,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2399AF44-C230-AD45-8055-01F99E7221A4}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView zoomScale="107" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView topLeftCell="A2" zoomScale="107" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.875" style="2"/>
+    <col min="2" max="2" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
@@ -5550,7 +7230,7 @@
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -5577,7 +7257,7 @@
       </c>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5599,7 +7279,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5621,7 +7301,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5642,7 +7322,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5664,7 +7344,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5686,7 +7366,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5708,7 +7388,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -5730,7 +7410,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5752,7 +7432,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -5774,7 +7454,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -5867,4 +7547,393 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D02247-C7A4-6143-AF8E-1B84690E55E5}">
+  <dimension ref="A1:Q12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.83203125" style="6"/>
+    <col min="3" max="3" width="10.83203125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8">
+        <f t="shared" ref="B3:B12" si="0">1.1^(A3-3)</f>
+        <v>0.82644628099173545</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8">
+        <f t="shared" si="0"/>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="C4" s="7">
+        <f t="shared" ref="C4:C7" si="1">1.1^(6-A4)</f>
+        <v>1.4641000000000004</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C5" s="7">
+        <f t="shared" si="1"/>
+        <v>1.3310000000000004</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C6" s="7">
+        <f t="shared" si="1"/>
+        <v>1.2100000000000002</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8">
+        <f t="shared" si="0"/>
+        <v>1.2100000000000002</v>
+      </c>
+      <c r="C7" s="7">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8">
+        <f t="shared" si="0"/>
+        <v>1.3310000000000004</v>
+      </c>
+      <c r="C8" s="7">
+        <f>1.1^(6-A8)</f>
+        <v>1</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8">
+        <f t="shared" si="0"/>
+        <v>1.4641000000000004</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="J9">
+        <v>6</v>
+      </c>
+      <c r="K9" s="3">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8">
+        <f t="shared" si="0"/>
+        <v>1.6105100000000006</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="J10">
+        <f>1.15^(7-J9)</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K10">
+        <f t="shared" ref="K10:N10" si="2">1.15^(7-K9)</f>
+        <v>1.3224999999999998</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>1.5208749999999995</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>1.7490062499999994</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>2.0113571874999994</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8">
+        <f t="shared" si="0"/>
+        <v>1.7715610000000008</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9487171000000012</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:O1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C3:H12">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:Q8 L11:Q12 O9:Q10">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B12">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:H12">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K9 M9 K11:K12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/W40K-HOI4 Converter.xlsx
+++ b/W40K-HOI4 Converter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/429d0bbe9bd122b3/Logiciels et Jeux/Heart of Iron IV/HOI4_Calculator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30E7DDE0-7559-F044-BCCF-868894B9CFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{30E7DDE0-7559-F044-BCCF-868894B9CFCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F158DB8-F769-8247-B4F5-97143FF819AA}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="29970" yWindow="1170" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{D4C3DD04-2F54-554F-9DFA-AF0108F6C81D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16740" activeTab="2" xr2:uid="{D4C3DD04-2F54-554F-9DFA-AF0108F6C81D}"/>
   </bookViews>
   <sheets>
     <sheet name="SA et HA" sheetId="1" r:id="rId1"/>
@@ -197,21 +197,6 @@
   </cellStyles>
   <dxfs count="21">
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -230,6 +215,21 @@
       </font>
       <numFmt numFmtId="164" formatCode="0.0"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
       <font>
@@ -1582,7 +1582,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AC16A1AC-14A9-A741-BF9F-860BF516F5B2}" type="CELLRANGE">
+                    <a:fld id="{21866E60-5E46-724C-9C1F-E4C986876666}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1615,8 +1615,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A6770A42-54CE-CD4F-B8F2-21D502DC4888}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{76CDEDD9-DCE4-A24F-9EFC-E5478280C122}" type="CELLRANGE">
+                      <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -1634,6 +1634,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1648,8 +1649,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{29F85460-5841-BC4D-8167-3C7BA909233E}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{18758913-E5B3-6A41-AB9A-50C06E89C547}" type="CELLRANGE">
+                      <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -1667,6 +1668,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1681,8 +1683,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0DC62D4A-C6D5-A646-85A9-A4DC5F88C2C1}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{1954D013-3394-C54F-82D2-13F9394DEA7C}" type="CELLRANGE">
+                      <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -1700,6 +1702,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1714,8 +1717,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6C410983-46FC-4342-B620-500A3C7B5A58}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{7E23D6BD-E80A-9245-8260-EE4CF0C2EEE0}" type="CELLRANGE">
+                      <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -1733,6 +1736,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1747,8 +1751,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{138B53B6-EDA3-5241-812D-6B3A044E40DF}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{6CFA5509-3416-EE45-938E-E6AAFFC28D33}" type="CELLRANGE">
+                      <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -1766,6 +1770,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1780,8 +1785,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{00756374-ECAD-194D-A2C0-96658856E94C}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{60F2BEC2-37E3-2D40-AC86-7FFA73F14525}" type="CELLRANGE">
+                      <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -1799,6 +1804,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1813,8 +1819,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{99F9CD0B-EA10-B448-9AA2-77814908DF7D}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{67AE82C2-3BA8-904E-80E8-61B19453B444}" type="CELLRANGE">
+                      <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -1832,6 +1838,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1846,8 +1853,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8EAA7AAA-7468-C842-9172-7704169D8F4F}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{2F291F7A-96D9-9645-8971-D2FA706869C1}" type="CELLRANGE">
+                      <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -1865,6 +1872,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1879,8 +1887,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E41EC8FE-A3C1-3A49-B246-4C89640B9F87}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{1C4215E8-F5C1-0C47-AE27-0CC5C249E157}" type="CELLRANGE">
+                      <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -1898,6 +1906,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1992,34 +2001,34 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.44444444444444442</c:v>
+                  <c:v>1.6487212707001282E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>2.7182818284590449E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>4.4816890703380644E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5</c:v>
+                  <c:v>7.3890560989306506E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.25</c:v>
+                  <c:v>0.12182493960703474</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.375</c:v>
+                  <c:v>0.20085536923187669</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0625</c:v>
+                  <c:v>0.3311545195869231</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.59375</c:v>
+                  <c:v>0.54598150033144233</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.390625</c:v>
+                  <c:v>0.90017131300521813</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.0859375</c:v>
+                  <c:v>1.484131591025766</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2032,34 +2041,34 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>0,4</c:v>
+                    <c:v>0,0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0,7</c:v>
+                    <c:v>0,0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1,0</c:v>
+                    <c:v>0,0</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1,5</c:v>
+                    <c:v>0,1</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2,3</c:v>
+                    <c:v>0,1</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>3,4</c:v>
+                    <c:v>0,2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>5,1</c:v>
+                    <c:v>0,3</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>7,6</c:v>
+                    <c:v>0,5</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>11,4</c:v>
+                    <c:v>0,9</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>17,1</c:v>
+                    <c:v>1,5</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -4246,13 +4255,15 @@
   <autoFilter ref="A2:H12" xr:uid="{4B6B9677-3CC6-274A-B76C-365663A705CB}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{9EB72AAB-E345-6949-90B2-EF5C02C4735E}" name="E / HP"/>
-    <tableColumn id="9" xr3:uid="{77A34681-2086-A749-A721-27F7398FABEB}" name="-" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{8820C6AE-5E1E-2046-9B4B-88D33201E54E}" name="Colonne1" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{0528867D-BFAB-D841-8103-23F69C8C64F2}" name="Colonne2" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{83EF4AD6-487F-8A4F-AAF2-B0E660AE2C9C}" name="Colonne3" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{37F7CDA7-B8DA-CC49-A998-E1429D5E1F19}" name="Colonne4" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{16B04AFD-D425-7C49-8211-BA56537C0D1F}" name="Colonne5" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{F074B7DE-CDF5-8D4E-A044-1E1D25EBC904}" name="Colonne6" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{77A34681-2086-A749-A721-27F7398FABEB}" name="-" dataDxfId="0">
+      <calculatedColumnFormula>EXP(A3/2) /100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{8820C6AE-5E1E-2046-9B4B-88D33201E54E}" name="Colonne1" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{0528867D-BFAB-D841-8103-23F69C8C64F2}" name="Colonne2" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{83EF4AD6-487F-8A4F-AAF2-B0E660AE2C9C}" name="Colonne3" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{37F7CDA7-B8DA-CC49-A998-E1429D5E1F19}" name="Colonne4" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{16B04AFD-D425-7C49-8211-BA56537C0D1F}" name="Colonne5" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{F074B7DE-CDF5-8D4E-A044-1E1D25EBC904}" name="Colonne6" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4561,12 +4572,12 @@
       <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.875" style="2"/>
+    <col min="2" max="2" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
@@ -4586,7 +4597,7 @@
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4636,7 +4647,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4698,7 +4709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4762,7 +4773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4826,7 +4837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4890,7 +4901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4953,7 +4964,7 @@
         <v>3.8201625000000012</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5017,7 +5028,7 @@
         <v>5.0808161250000001</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -5081,7 +5092,7 @@
         <v>6.7574854462500031</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5145,7 +5156,7 @@
         <v>8.9874556435125008</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -5209,7 +5220,7 @@
         <v>11.953316005871628</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -5351,16 +5362,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F97B4F1-F554-1842-9830-8AFE983B6720}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -5377,7 +5388,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -5388,7 +5399,7 @@
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -5399,12 +5410,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -5415,7 +5426,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -5426,7 +5437,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -5437,7 +5448,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -5452,7 +5463,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -5463,7 +5474,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -5471,7 +5482,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -5479,7 +5490,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -5523,16 +5534,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2399AF44-C230-AD45-8055-01F99E7221A4}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView zoomScale="107" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.875" style="2"/>
+    <col min="2" max="2" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
@@ -5550,7 +5561,7 @@
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -5577,13 +5588,13 @@
       </c>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <f>B4/1.5</f>
-        <v>0.44444444444444442</v>
+        <f t="shared" ref="B3:B12" si="0">EXP(A3/2) /100</f>
+        <v>1.6487212707001282E-2</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -5599,13 +5610,13 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <f>B5/1.5</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="0"/>
+        <v>2.7182818284590449E-2</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -5621,12 +5632,13 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>4.4816890703380644E-2</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -5642,13 +5654,13 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <f t="shared" ref="B6:B12" si="0">B5*1.5</f>
-        <v>1.5</v>
+        <f t="shared" si="0"/>
+        <v>7.3890560989306506E-2</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -5664,13 +5676,13 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" s="3">
         <f t="shared" si="0"/>
-        <v>2.25</v>
+        <v>0.12182493960703474</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -5686,13 +5698,13 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" s="3">
         <f t="shared" si="0"/>
-        <v>3.375</v>
+        <v>0.20085536923187669</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -5708,13 +5720,13 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" s="3">
         <f t="shared" si="0"/>
-        <v>5.0625</v>
+        <v>0.3311545195869231</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -5730,13 +5742,13 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" s="3">
         <f t="shared" si="0"/>
-        <v>7.59375</v>
+        <v>0.54598150033144233</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -5752,13 +5764,13 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" s="3">
         <f t="shared" si="0"/>
-        <v>11.390625</v>
+        <v>0.90017131300521813</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -5774,13 +5786,13 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" s="3">
         <f t="shared" si="0"/>
-        <v>17.0859375</v>
+        <v>1.484131591025766</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>

--- a/W40K-HOI4 Converter.xlsx
+++ b/W40K-HOI4 Converter.xlsx
@@ -197,6 +197,21 @@
   </cellStyles>
   <dxfs count="21">
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -215,21 +230,6 @@
       </font>
       <numFmt numFmtId="164" formatCode="0.0"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
       <font>
@@ -1615,7 +1615,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{76CDEDD9-DCE4-A24F-9EFC-E5478280C122}" type="CELLRANGE">
+                    <a:fld id="{26C9ABEB-47E2-D742-A5D9-7FBDCE656EB5}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1649,7 +1649,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{18758913-E5B3-6A41-AB9A-50C06E89C547}" type="CELLRANGE">
+                    <a:fld id="{A065FD2B-BD2D-C14B-B9D6-805C7E3D68E3}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1683,7 +1683,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1954D013-3394-C54F-82D2-13F9394DEA7C}" type="CELLRANGE">
+                    <a:fld id="{D11FC217-0B6F-AE47-9594-3D69BA26D4A2}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1717,7 +1717,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7E23D6BD-E80A-9245-8260-EE4CF0C2EEE0}" type="CELLRANGE">
+                    <a:fld id="{6079167F-7912-D64B-ADCE-DCC9CBC9E2DE}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1751,7 +1751,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6CFA5509-3416-EE45-938E-E6AAFFC28D33}" type="CELLRANGE">
+                    <a:fld id="{9E19C1A2-B182-7644-A6AA-F1C75727195B}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1785,7 +1785,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{60F2BEC2-37E3-2D40-AC86-7FFA73F14525}" type="CELLRANGE">
+                    <a:fld id="{1F56B3A3-78B2-B64D-9BDD-5CB9B4D3426A}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1819,7 +1819,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{67AE82C2-3BA8-904E-80E8-61B19453B444}" type="CELLRANGE">
+                    <a:fld id="{3A84342B-4F9F-3D48-A7B7-ED660A4FECA2}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1853,7 +1853,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2F291F7A-96D9-9645-8971-D2FA706869C1}" type="CELLRANGE">
+                    <a:fld id="{2943E72A-3A11-9A44-BA8B-F9AB1F171F9D}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1887,7 +1887,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1C4215E8-F5C1-0C47-AE27-0CC5C249E157}" type="CELLRANGE">
+                    <a:fld id="{EE4B413F-E95D-2840-8B75-F8973FD05B2B}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -4255,15 +4255,15 @@
   <autoFilter ref="A2:H12" xr:uid="{4B6B9677-3CC6-274A-B76C-365663A705CB}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{9EB72AAB-E345-6949-90B2-EF5C02C4735E}" name="E / HP"/>
-    <tableColumn id="9" xr3:uid="{77A34681-2086-A749-A721-27F7398FABEB}" name="-" dataDxfId="0">
+    <tableColumn id="9" xr3:uid="{77A34681-2086-A749-A721-27F7398FABEB}" name="-" dataDxfId="6">
       <calculatedColumnFormula>EXP(A3/2) /100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{8820C6AE-5E1E-2046-9B4B-88D33201E54E}" name="Colonne1" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{0528867D-BFAB-D841-8103-23F69C8C64F2}" name="Colonne2" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{83EF4AD6-487F-8A4F-AAF2-B0E660AE2C9C}" name="Colonne3" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{37F7CDA7-B8DA-CC49-A998-E1429D5E1F19}" name="Colonne4" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{16B04AFD-D425-7C49-8211-BA56537C0D1F}" name="Colonne5" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{F074B7DE-CDF5-8D4E-A044-1E1D25EBC904}" name="Colonne6" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{8820C6AE-5E1E-2046-9B4B-88D33201E54E}" name="Colonne1" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{0528867D-BFAB-D841-8103-23F69C8C64F2}" name="Colonne2" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{83EF4AD6-487F-8A4F-AAF2-B0E660AE2C9C}" name="Colonne3" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{37F7CDA7-B8DA-CC49-A998-E1429D5E1F19}" name="Colonne4" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{16B04AFD-D425-7C49-8211-BA56537C0D1F}" name="Colonne5" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{F074B7DE-CDF5-8D4E-A044-1E1D25EBC904}" name="Colonne6" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5535,7 +5535,7 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/W40K-HOI4 Converter.xlsx
+++ b/W40K-HOI4 Converter.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="4" documentId="8_{30E7DDE0-7559-F044-BCCF-868894B9CFCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F158DB8-F769-8247-B4F5-97143FF819AA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16740" activeTab="2" xr2:uid="{D4C3DD04-2F54-554F-9DFA-AF0108F6C81D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16680" activeTab="2" xr2:uid="{D4C3DD04-2F54-554F-9DFA-AF0108F6C81D}"/>
   </bookViews>
   <sheets>
     <sheet name="SA et HA" sheetId="1" r:id="rId1"/>
@@ -1582,7 +1582,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{21866E60-5E46-724C-9C1F-E4C986876666}" type="CELLRANGE">
+                    <a:fld id="{947C1FFC-EE6E-7546-9DA7-4F7B0DC3E410}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1615,7 +1615,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{26C9ABEB-47E2-D742-A5D9-7FBDCE656EB5}" type="CELLRANGE">
+                    <a:fld id="{1C2D9610-8D1F-724B-A7C0-FA9CA062D345}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1649,7 +1649,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A065FD2B-BD2D-C14B-B9D6-805C7E3D68E3}" type="CELLRANGE">
+                    <a:fld id="{FB4DBADD-2256-8242-BD8E-9BC9D1C88430}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1683,7 +1683,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D11FC217-0B6F-AE47-9594-3D69BA26D4A2}" type="CELLRANGE">
+                    <a:fld id="{41B58270-C412-B34E-BEBF-CED6080234FB}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1717,7 +1717,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6079167F-7912-D64B-ADCE-DCC9CBC9E2DE}" type="CELLRANGE">
+                    <a:fld id="{C842AAF4-C623-C44B-A730-D7E20DFCCEB3}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1751,7 +1751,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9E19C1A2-B182-7644-A6AA-F1C75727195B}" type="CELLRANGE">
+                    <a:fld id="{879E2436-A9B4-9741-98F7-7D6612E353DE}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1785,7 +1785,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1F56B3A3-78B2-B64D-9BDD-5CB9B4D3426A}" type="CELLRANGE">
+                    <a:fld id="{DE1582A4-B85D-074F-B04C-7D50C8BBFB00}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1819,7 +1819,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3A84342B-4F9F-3D48-A7B7-ED660A4FECA2}" type="CELLRANGE">
+                    <a:fld id="{DA8D480C-1652-F645-B95C-00891DBC799C}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1853,7 +1853,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2943E72A-3A11-9A44-BA8B-F9AB1F171F9D}" type="CELLRANGE">
+                    <a:fld id="{21474920-92D3-3F44-A86C-9F524574EF82}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1887,7 +1887,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EE4B413F-E95D-2840-8B75-F8973FD05B2B}" type="CELLRANGE">
+                    <a:fld id="{7FABC091-916F-DB43-9C2C-EDB84C393FC1}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>

--- a/W40K-HOI4 Converter.xlsx
+++ b/W40K-HOI4 Converter.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/429d0bbe9bd122b3/Logiciels et Jeux/Heart of Iron IV/HOI4_Calculator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/429d0bbe9bd122b3/Logiciels et Jeux/03-GitHub/HOI4_Calculator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{30E7DDE0-7559-F044-BCCF-868894B9CFCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F158DB8-F769-8247-B4F5-97143FF819AA}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{30E7DDE0-7559-F044-BCCF-868894B9CFCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{B28E4734-4E85-D948-B9FE-31347F105C1F}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16680" activeTab="2" xr2:uid="{D4C3DD04-2F54-554F-9DFA-AF0108F6C81D}"/>
   </bookViews>
@@ -116,9 +116,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>E / HP</t>
-  </si>
-  <si>
     <t>Colonne1</t>
   </si>
   <si>
@@ -135,6 +132,9 @@
   </si>
   <si>
     <t>Colonne6</t>
+  </si>
+  <si>
+    <t>F / HP</t>
   </si>
 </sst>
 </file>
@@ -1582,12 +1582,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{947C1FFC-EE6E-7546-9DA7-4F7B0DC3E410}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[PLAGECELL]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="fr-FR"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1600,7 +1595,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1615,7 +1609,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1C2D9610-8D1F-724B-A7C0-FA9CA062D345}" type="CELLRANGE">
+                    <a:fld id="{08D4DDAC-5605-4F48-BE4D-97BCBD9A01A9}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1649,7 +1643,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FB4DBADD-2256-8242-BD8E-9BC9D1C88430}" type="CELLRANGE">
+                    <a:fld id="{BCBEF458-B84D-1848-B732-61276D46EF05}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1683,7 +1677,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{41B58270-C412-B34E-BEBF-CED6080234FB}" type="CELLRANGE">
+                    <a:fld id="{203BFF25-5165-4041-BBE6-6C40B8D6B9A0}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1717,11 +1711,6 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C842AAF4-C623-C44B-A730-D7E20DFCCEB3}" type="CELLRANGE">
-                      <a:rPr lang="fr-FR"/>
-                      <a:pPr/>
-                      <a:t>[PLAGECELL]</a:t>
-                    </a:fld>
                     <a:endParaRPr lang="fr-FR"/>
                   </a:p>
                 </c:rich>
@@ -1735,7 +1724,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -1751,11 +1739,6 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{879E2436-A9B4-9741-98F7-7D6612E353DE}" type="CELLRANGE">
-                      <a:rPr lang="fr-FR"/>
-                      <a:pPr/>
-                      <a:t>[PLAGECELL]</a:t>
-                    </a:fld>
                     <a:endParaRPr lang="fr-FR"/>
                   </a:p>
                 </c:rich>
@@ -1769,7 +1752,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -1785,11 +1767,6 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DE1582A4-B85D-074F-B04C-7D50C8BBFB00}" type="CELLRANGE">
-                      <a:rPr lang="fr-FR"/>
-                      <a:pPr/>
-                      <a:t>[PLAGECELL]</a:t>
-                    </a:fld>
                     <a:endParaRPr lang="fr-FR"/>
                   </a:p>
                 </c:rich>
@@ -1803,7 +1780,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -1819,11 +1795,6 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DA8D480C-1652-F645-B95C-00891DBC799C}" type="CELLRANGE">
-                      <a:rPr lang="fr-FR"/>
-                      <a:pPr/>
-                      <a:t>[PLAGECELL]</a:t>
-                    </a:fld>
                     <a:endParaRPr lang="fr-FR"/>
                   </a:p>
                 </c:rich>
@@ -1837,7 +1808,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -1853,11 +1823,6 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{21474920-92D3-3F44-A86C-9F524574EF82}" type="CELLRANGE">
-                      <a:rPr lang="fr-FR"/>
-                      <a:pPr/>
-                      <a:t>[PLAGECELL]</a:t>
-                    </a:fld>
                     <a:endParaRPr lang="fr-FR"/>
                   </a:p>
                 </c:rich>
@@ -1871,7 +1836,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -1887,11 +1851,6 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7FABC091-916F-DB43-9C2C-EDB84C393FC1}" type="CELLRANGE">
-                      <a:rPr lang="fr-FR"/>
-                      <a:pPr/>
-                      <a:t>[PLAGECELL]</a:t>
-                    </a:fld>
                     <a:endParaRPr lang="fr-FR"/>
                   </a:p>
                 </c:rich>
@@ -1905,7 +1864,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -2000,35 +1958,14 @@
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1.6487212707001282E-2</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7182818284590449E-2</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.4816890703380644E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.3890560989306506E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.12182493960703474</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.20085536923187669</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.3311545195869231</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.54598150033144233</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.90017131300521813</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.484131591025766</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2040,35 +1977,14 @@
                 <c15:f>'E and HP'!$B$3:$B$12</c15:f>
                 <c15:dlblRangeCache>
                   <c:ptCount val="10"/>
-                  <c:pt idx="0">
-                    <c:v>0,0</c:v>
-                  </c:pt>
                   <c:pt idx="1">
-                    <c:v>0,0</c:v>
+                    <c:v>0,9</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0,0</c:v>
+                    <c:v>1,0</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0,1</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0,1</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0,2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>0,3</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0,5</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0,9</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>1,5</c:v>
+                    <c:v>1,1</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -4254,10 +4170,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{622A4898-B446-AF42-A73D-0400C4ECFB0E}" name="Tableau14" displayName="Tableau14" ref="A2:H12" totalsRowShown="0">
   <autoFilter ref="A2:H12" xr:uid="{4B6B9677-3CC6-274A-B76C-365663A705CB}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{9EB72AAB-E345-6949-90B2-EF5C02C4735E}" name="E / HP"/>
-    <tableColumn id="9" xr3:uid="{77A34681-2086-A749-A721-27F7398FABEB}" name="-" dataDxfId="6">
-      <calculatedColumnFormula>EXP(A3/2) /100</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="1" xr3:uid="{9EB72AAB-E345-6949-90B2-EF5C02C4735E}" name="F / HP"/>
+    <tableColumn id="9" xr3:uid="{77A34681-2086-A749-A721-27F7398FABEB}" name="-" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{8820C6AE-5E1E-2046-9B4B-88D33201E54E}" name="Colonne1" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{0528867D-BFAB-D841-8103-23F69C8C64F2}" name="Colonne2" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{83EF4AD6-487F-8A4F-AAF2-B0E660AE2C9C}" name="Colonne3" dataDxfId="3"/>
@@ -5535,7 +5449,7 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5563,28 +5477,28 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>29</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>31</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
       </c>
       <c r="L2" s="2"/>
     </row>
@@ -5592,10 +5506,7 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
-        <f t="shared" ref="B3:B12" si="0">EXP(A3/2) /100</f>
-        <v>1.6487212707001282E-2</v>
-      </c>
+      <c r="B3" s="3"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -5615,8 +5526,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <f t="shared" si="0"/>
-        <v>2.7182818284590449E-2</v>
+        <v>0.9</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -5637,8 +5547,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <f t="shared" si="0"/>
-        <v>4.4816890703380644E-2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -5659,8 +5568,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <f t="shared" si="0"/>
-        <v>7.3890560989306506E-2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -5680,10 +5588,7 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
-        <f t="shared" si="0"/>
-        <v>0.12182493960703474</v>
-      </c>
+      <c r="B7" s="3"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -5702,10 +5607,7 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
-        <f t="shared" si="0"/>
-        <v>0.20085536923187669</v>
-      </c>
+      <c r="B8" s="3"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -5724,10 +5626,7 @@
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="3">
-        <f t="shared" si="0"/>
-        <v>0.3311545195869231</v>
-      </c>
+      <c r="B9" s="3"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -5746,10 +5645,7 @@
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="3">
-        <f t="shared" si="0"/>
-        <v>0.54598150033144233</v>
-      </c>
+      <c r="B10" s="3"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -5768,10 +5664,7 @@
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="3">
-        <f t="shared" si="0"/>
-        <v>0.90017131300521813</v>
-      </c>
+      <c r="B11" s="3"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -5790,10 +5683,7 @@
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="3">
-        <f t="shared" si="0"/>
-        <v>1.484131591025766</v>
-      </c>
+      <c r="B12" s="3"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
